--- a/input.xlsx
+++ b/input.xlsx
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +99,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,8 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,7 +452,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,10 +462,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -561,5 +584,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>